--- a/db_file.xlsx
+++ b/db_file.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45420.98402017418</v>
+        <v>45422.01484539285</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -488,11 +488,47 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2342356</v>
+        <v>234123412</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>weg</t>
+          <t>kjnwehjvlerij</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45422.01490638973</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Списание</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>123</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>wdfger</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45422.01502186686</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Пополнение</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>123123124</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>fwefwe</t>
         </is>
       </c>
     </row>

--- a/db_file.xlsx
+++ b/db_file.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45422.01484539285</v>
+        <v>45422.53884888632</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -488,47 +488,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>234123412</v>
+        <v>123</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>kjnwehjvlerij</t>
+          <t>123</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45422.01490638973</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>123123123123123123123123123123</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Списание</t>
+          <t>Пополнение</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>123</v>
+        <v>413</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>wdfger</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>45422.01502186686</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Пополнение</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>123123124</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>fwefwe</t>
+          <t>412</t>
         </is>
       </c>
     </row>

--- a/db_file.xlsx
+++ b/db_file.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45422.53884888632</v>
+        <v>45422.57849476147</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -493,26 +493,6 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>123</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>123123123123123123123123123123</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Пополнение</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>413</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>412</t>
         </is>
       </c>
     </row>
